--- a/工程及实验/CutPicture2/CutPicture类图.xlsx
+++ b/工程及实验/CutPicture2/CutPicture类图.xlsx
@@ -875,7 +875,7 @@
   <dimension ref="A2:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
